--- a/IPL.xlsx
+++ b/IPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivektiwari/Code and Viz/Python/Cricket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A1A1BA-5856-FD45-8937-78AC3D664473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF9AA1-1D9B-924D-BC73-C23B5906B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{83EDF131-78D8-7547-8E22-1901F0FAA2A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{83EDF131-78D8-7547-8E22-1901F0FAA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,22 +68,22 @@
     <t>Punjab Kings</t>
   </si>
   <si>
-    <t>Batting - MO</t>
-  </si>
-  <si>
-    <t>Batting - DO</t>
-  </si>
-  <si>
-    <t>Batting - PP</t>
-  </si>
-  <si>
-    <t>Bowling - PP</t>
-  </si>
-  <si>
-    <t>Bowling - MO</t>
-  </si>
-  <si>
-    <t>Bowling - DO</t>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>BMO</t>
+  </si>
+  <si>
+    <t>BDO</t>
   </si>
 </sst>
 </file>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12A7C36-BAC0-3945-A0FB-29ADD17319EE}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,247 +470,260 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>22.2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>88.8</v>
+      </c>
+      <c r="D2">
         <v>77.7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="F2">
         <v>88.8</v>
       </c>
-      <c r="E2" s="1">
-        <v>66.600000000000009</v>
-      </c>
-      <c r="F2" s="1">
-        <v>33.300000000000004</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44.4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="G2">
         <v>88.8</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>88.8</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>77.7</v>
       </c>
       <c r="C3">
         <v>77.7</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>22.2</v>
+        <v>88.8</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>11.1</v>
       </c>
       <c r="G3">
-        <v>11.1</v>
-      </c>
-      <c r="H3">
-        <v>44.4</v>
-      </c>
-      <c r="I3">
-        <v>66.600000000000009</v>
-      </c>
-      <c r="J3">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="K3">
-        <v>33.300000000000004</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>77.7</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>88.8</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>33.300000000000004</v>
       </c>
       <c r="E4">
+        <v>11.1</v>
+      </c>
+      <c r="F4">
+        <v>66.600000000000009</v>
+      </c>
+      <c r="G4">
         <v>88.8</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>44.4</v>
-      </c>
-      <c r="H4">
-        <v>66.600000000000009</v>
-      </c>
-      <c r="I4">
-        <v>22.2</v>
-      </c>
-      <c r="J4">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="K4">
-        <v>11.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>55.500000000000007</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>66.600000000000009</v>
       </c>
       <c r="C5">
+        <v>22.2</v>
+      </c>
+      <c r="D5">
         <v>88.8</v>
-      </c>
-      <c r="D5">
-        <v>11.1</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>22.2</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>33.300000000000004</v>
-      </c>
-      <c r="J5">
-        <v>33.300000000000004</v>
-      </c>
-      <c r="K5">
-        <v>55.500000000000007</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>88.8</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>33.300000000000004</v>
       </c>
       <c r="C6">
-        <v>11.1</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>66.600000000000009</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>22.2</v>
       </c>
       <c r="F6">
         <v>66.600000000000009</v>
       </c>
       <c r="G6">
-        <v>11.1</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>11.1</v>
-      </c>
-      <c r="J6">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="K6">
-        <v>11.1</v>
+        <v>33.300000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="C7">
+        <v>11.1</v>
+      </c>
+      <c r="D7">
+        <v>44.4</v>
+      </c>
+      <c r="E7">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="F7">
+        <v>11.1</v>
+      </c>
+      <c r="G7">
+        <v>55.500000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>44.4</v>
+      </c>
+      <c r="D8">
+        <v>66.600000000000009</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="C9">
+        <v>66.600000000000009</v>
+      </c>
+      <c r="D9">
+        <v>22.2</v>
+      </c>
+      <c r="E9">
+        <v>33.300000000000004</v>
+      </c>
+      <c r="F9">
+        <v>11.1</v>
+      </c>
+      <c r="G9">
+        <v>55.500000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="C10">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="D10">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="E10">
+        <v>33.300000000000004</v>
+      </c>
+      <c r="F10">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>88.8</v>
       </c>
-      <c r="C7">
-        <v>77.7</v>
-      </c>
-      <c r="D7">
-        <v>88.8</v>
-      </c>
-      <c r="E7">
-        <v>44.4</v>
-      </c>
-      <c r="F7">
+      <c r="C11">
         <v>33.300000000000004</v>
       </c>
-      <c r="G7">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>55.500000000000007</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
+      <c r="D11">
+        <v>11.1</v>
+      </c>
+      <c r="E11">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="F11">
+        <v>11.1</v>
+      </c>
+      <c r="G11">
         <v>22.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>